--- a/data/trans_bre/P28B_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>121,48%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 7,63</t>
+          <t>-15,32; 11,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 19,53</t>
+          <t>2,0; 20,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 15,5</t>
+          <t>3,22; 17,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 7,78</t>
+          <t>-5,16; 8,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 8,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 25,76</t>
+          <t>-38,67; 44,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,3; 253,51</t>
+          <t>11,94; 282,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,81; 158,55</t>
+          <t>15,93; 199,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 83,21</t>
+          <t>-28,1; 91,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 51,56</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>13,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 17,45</t>
+          <t>4,0; 21,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 9,98</t>
+          <t>-6,29; 10,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,51</t>
+          <t>0,21; 10,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 12,14</t>
+          <t>2,17; 12,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 18,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 53,3</t>
+          <t>10,03; 69,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 50,48</t>
+          <t>-19,83; 46,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 70,38</t>
+          <t>0,75; 69,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 93,93</t>
+          <t>10,09; 94,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 106,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>18,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,48</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>80,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 23,73</t>
+          <t>8,75; 27,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 14,71</t>
+          <t>1,01; 16,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 17,36</t>
+          <t>5,45; 17,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 15,35</t>
+          <t>5,99; 15,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 24,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,14; 73,33</t>
+          <t>20,99; 92,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 77,7</t>
+          <t>2,69; 87,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,18; 119,69</t>
+          <t>23,48; 122,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,02; 139,52</t>
+          <t>35,48; 148,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,2; 196,19</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,82</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>66,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,85</t>
+          <t>3,27; 13,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,39</t>
+          <t>-0,92; 11,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 11,87</t>
+          <t>3,7; 15,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 10,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 13,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 41,6</t>
+          <t>8,25; 40,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 54,84</t>
+          <t>-3,86; 63,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,83; 80,89</t>
+          <t>19,15; 132,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,45; 81,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,47; 76,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28,78%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>54,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>50,68%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 14,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 9,95</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 11,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 10,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,14; 42,92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 49,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32,01; 78,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 83,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P28B_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,66%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>92,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>83,2%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>21,56%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-2.252322045262556</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.00947309019244</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.26916771807447</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.493098315351364</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.06655425358123077</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.895117387629941</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8153989630527819</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1939068125193182</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,32; 11,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 20,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 17,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 8,23</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-38,67; 44,94</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>11,94; 282,34</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15,93; 199,43</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-28,1; 91,65</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.32134566177385</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.861353287586243</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.763860624029096</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.834291767939451</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.3866800462087526</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.08740771500995238</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1460013757964625</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3158481650872745</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.94620141274279</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.98762390321757</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.01463726526662</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.114554347718931</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>0.4494034108707778</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.664981056195869</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.965743230708404</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8684647015956105</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>35,84%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,91%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,94%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>47,81%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 21,69</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 10,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 10,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 12,18</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,03; 69,69</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-19,83; 46,9</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 69,22</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 94,24</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>13.36058370080759</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.458373654147129</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.65261183016913</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.151642591896995</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.3629741346528677</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1706044888602089</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3079613447242852</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4741872539770542</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>18,56</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,79</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,66</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>52,26%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>41,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>67,27%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>80,39%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.350617476160012</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.836779601345649</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.4237948367109021</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.245326019143317</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>0.1302618716384477</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1562743808194387</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.02338795656870711</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1177314511591913</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>8,75; 27,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 16,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 17,65</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>5,99; 15,95</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>20,99; 92,96</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 87,98</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>23,48; 122,02</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>35,48; 148,09</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>21.97871122231197</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.57556615189369</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.91427077656768</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.03267019251658</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.7119110139696087</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5301943277958919</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7146186220452861</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9531541109309735</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +855,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,54</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,82</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>24,37%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26,88%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>66,47%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>18.75060729976926</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.994023992956162</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.41489789406956</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.47461620894048</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.5280145142209807</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4200671404922538</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.635775879712243</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7846965633632529</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 13,12</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 11,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 15,95</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 40,26</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 63,35</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>19,15; 132,1</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>9.077020298435542</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.065162736590435</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5.011838219885234</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>5.928390762100045</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>0.2145962305040693</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.03871568669456497</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.1977635803419431</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.3486242595433849</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>27.51248247313697</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.94420859722374</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.38438550810713</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.93091984583528</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.9502367261671767</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.8951468784989246</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.185287161261016</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.461739423406964</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,12</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>28,78%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>27,56%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>54,09%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>50,68%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>6,36; 14,23</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 9,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,85; 11,64</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 10,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,14; 42,92</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 49,14</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>32,01; 78,33</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>21,9; 83,19</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>12.51733633873777</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.866109270189622</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.470291031734103</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.936033673455944</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.3490499297010601</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3082166705006615</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4964458211912416</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4929405137723297</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.59527023260803</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.835229937811268</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.494779930387296</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.263422751926294</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>0.1644932548216162</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.05745021491448565</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2382750336834952</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2047769718654145</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>18.2553653186988</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.48811931464761</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.83921124226275</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.797840020774252</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.5691426432131241</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5939624378044747</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7884774421290074</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8098240013104887</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
